--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>303.3695526903401</v>
+        <v>62.64348042547098</v>
       </c>
       <c r="R2">
-        <v>2730.32597421306</v>
+        <v>563.7913238292389</v>
       </c>
       <c r="S2">
-        <v>0.04663496689368886</v>
+        <v>0.02217628221202376</v>
       </c>
       <c r="T2">
-        <v>0.04663496689368885</v>
+        <v>0.02217628221202376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>885.750845109405</v>
+        <v>164.471441995047</v>
       </c>
       <c r="R3">
-        <v>7971.757605984645</v>
+        <v>1480.242977955423</v>
       </c>
       <c r="S3">
-        <v>0.1361605374415985</v>
+        <v>0.05822417734021099</v>
       </c>
       <c r="T3">
-        <v>0.1361605374415985</v>
+        <v>0.05822417734021099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>80.05473805742501</v>
+        <v>11.805055007378</v>
       </c>
       <c r="R4">
-        <v>720.4926425168251</v>
+        <v>106.245495066402</v>
       </c>
       <c r="S4">
-        <v>0.01230627802257305</v>
+        <v>0.004179081838908067</v>
       </c>
       <c r="T4">
-        <v>0.01230627802257305</v>
+        <v>0.004179081838908067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>24.473545815815</v>
+        <v>4.443820862263999</v>
       </c>
       <c r="R5">
-        <v>220.261912342335</v>
+        <v>39.99438776037599</v>
       </c>
       <c r="S5">
-        <v>0.003762154075022481</v>
+        <v>0.00157314735503067</v>
       </c>
       <c r="T5">
-        <v>0.003762154075022481</v>
+        <v>0.00157314735503067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>328.9084122650423</v>
+        <v>365.7631459702671</v>
       </c>
       <c r="R6">
-        <v>2960.17571038538</v>
+        <v>3291.868313732405</v>
       </c>
       <c r="S6">
-        <v>0.05056088450871236</v>
+        <v>0.1294830155141927</v>
       </c>
       <c r="T6">
-        <v>0.05056088450871235</v>
+        <v>0.1294830155141927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>960.3168859358983</v>
@@ -883,10 +883,10 @@
         <v>8642.851973423085</v>
       </c>
       <c r="S7">
-        <v>0.1476230748468814</v>
+        <v>0.3399596914290733</v>
       </c>
       <c r="T7">
-        <v>0.1476230748468814</v>
+        <v>0.3399596914290735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>86.79406537424724</v>
+        <v>68.92742913586557</v>
       </c>
       <c r="R8">
-        <v>781.146588368225</v>
+        <v>620.34686222279</v>
       </c>
       <c r="S8">
-        <v>0.01334226961605555</v>
+        <v>0.02440084922300566</v>
       </c>
       <c r="T8">
-        <v>0.01334226961605555</v>
+        <v>0.02440084922300566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>26.53382656693944</v>
+        <v>25.94660909116889</v>
       </c>
       <c r="R9">
-        <v>238.804439102455</v>
+        <v>233.51948182052</v>
       </c>
       <c r="S9">
-        <v>0.004078867218343314</v>
+        <v>0.009185302632336884</v>
       </c>
       <c r="T9">
-        <v>0.004078867218343314</v>
+        <v>0.009185302632336885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>98.93671502780445</v>
+        <v>115.7500372647654</v>
       </c>
       <c r="R10">
-        <v>890.4304352502401</v>
+        <v>1041.750335382889</v>
       </c>
       <c r="S10">
-        <v>0.01520887771688008</v>
+        <v>0.04097641885478629</v>
       </c>
       <c r="T10">
-        <v>0.01520887771688008</v>
+        <v>0.04097641885478629</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>288.8664276657867</v>
+        <v>303.9035412881636</v>
       </c>
       <c r="R11">
-        <v>2599.79784899208</v>
+        <v>2735.131871593473</v>
       </c>
       <c r="S11">
-        <v>0.04440549874378044</v>
+        <v>0.1075842314486003</v>
       </c>
       <c r="T11">
-        <v>0.04440549874378043</v>
+        <v>0.1075842314486003</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>26.10793580164445</v>
+        <v>21.81289334078911</v>
       </c>
       <c r="R12">
-        <v>234.9714222148</v>
+        <v>196.316040067102</v>
       </c>
       <c r="S12">
-        <v>0.004013397887081408</v>
+        <v>0.007721934913268771</v>
       </c>
       <c r="T12">
-        <v>0.004013397887081408</v>
+        <v>0.00772193491326877</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>7.981460916648888</v>
+        <v>8.211108752441778</v>
       </c>
       <c r="R13">
-        <v>71.83314824983999</v>
+        <v>73.899978771976</v>
       </c>
       <c r="S13">
-        <v>0.001226936461850954</v>
+        <v>0.002906796744545634</v>
       </c>
       <c r="T13">
-        <v>0.001226936461850954</v>
+        <v>0.002906796744545634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>794.2984830971795</v>
+        <v>182.9649310007347</v>
       </c>
       <c r="R14">
-        <v>7148.686347874616</v>
+        <v>1646.684379006612</v>
       </c>
       <c r="S14">
-        <v>0.1221021791226175</v>
+        <v>0.06477101714683729</v>
       </c>
       <c r="T14">
-        <v>0.1221021791226175</v>
+        <v>0.06477101714683729</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>2319.120513028491</v>
+        <v>480.377300747476</v>
       </c>
       <c r="R15">
-        <v>20872.08461725642</v>
+        <v>4323.395706727284</v>
       </c>
       <c r="S15">
-        <v>0.356502844100354</v>
+        <v>0.1700573230808982</v>
       </c>
       <c r="T15">
-        <v>0.3565028441003539</v>
+        <v>0.1700573230808982</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>209.6036218527856</v>
+        <v>34.47942324109067</v>
       </c>
       <c r="R16">
-        <v>1886.43259667507</v>
+        <v>310.314809169816</v>
       </c>
       <c r="S16">
-        <v>0.03222095915432711</v>
+        <v>0.0122059856047101</v>
       </c>
       <c r="T16">
-        <v>0.03222095915432711</v>
+        <v>0.0122059856047101</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>64.0779542479451</v>
+        <v>12.97921781997867</v>
       </c>
       <c r="R17">
-        <v>576.7015882315059</v>
+        <v>116.812960379808</v>
       </c>
       <c r="S17">
-        <v>0.009850274190233141</v>
+        <v>0.004594744661571232</v>
       </c>
       <c r="T17">
-        <v>0.009850274190233141</v>
+        <v>0.004594744661571232</v>
       </c>
     </row>
   </sheetData>
